--- a/minha_base.xlsx
+++ b/minha_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83A46B-94E4-43D2-B8B0-5C2A9B1D5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40E891-5F43-458A-96DB-F326A13C3D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{9F68517A-EA5E-4550-B94E-8BDC739546EE}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Canal da Oportunidade</t>
   </si>
   <si>
-    <t>Empresa</t>
-  </si>
-  <si>
     <t>Nome da Oportunidade</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Faturamento - Imposto</t>
+  </si>
+  <si>
+    <t>Nome Empresa</t>
   </si>
 </sst>
 </file>
@@ -562,14 +562,14 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -909,15 +909,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACD6DE7-987B-41B6-8418-EC44242ED837}">
   <dimension ref="A1:DC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
-      <selection activeCell="CZ26" sqref="CZ26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -972,354 +972,354 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3">
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="4">
         <v>45673</v>
@@ -1329,40 +1329,40 @@
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U2" s="3">
         <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W2" s="3">
         <v>12</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y2" s="3">
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA2" s="4">
         <v>45674</v>
@@ -1474,81 +1474,81 @@
         <v>45813</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ2" s="5"/>
       <c r="CR2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS2" s="3">
         <v>0</v>
       </c>
       <c r="CT2" s="5"/>
       <c r="CU2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV2" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC2" s="5"/>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="3">
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="4">
         <v>45673</v>
@@ -1558,40 +1558,40 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U3" s="3">
         <v>1</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W3" s="3">
         <v>12</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA3" s="4">
         <v>45674</v>
@@ -1703,81 +1703,81 @@
         <v>45813</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ3" s="5"/>
       <c r="CR3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS3" s="3">
         <v>0</v>
       </c>
       <c r="CT3" s="5"/>
       <c r="CU3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="5"/>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H4" s="3">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4" s="4">
         <v>45673</v>
@@ -1787,40 +1787,40 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U4" s="3">
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4" s="3">
         <v>12</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA4" s="4">
         <v>45674</v>
@@ -1932,81 +1932,81 @@
         <v>45813</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ4" s="5"/>
       <c r="CR4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS4" s="3">
         <v>0</v>
       </c>
       <c r="CT4" s="5"/>
       <c r="CU4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV4" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC4" s="5"/>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3">
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" s="4">
         <v>45673</v>
@@ -2018,40 +2018,40 @@
         <v>19934</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U5" s="3">
         <v>1</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W5" s="3">
         <v>12</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="4">
         <v>45674</v>
@@ -2153,19 +2153,19 @@
         <v>45813</v>
       </c>
       <c r="CN5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ5" s="9">
         <v>19932</v>
       </c>
       <c r="CR5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS5" s="3">
         <v>9966</v>
@@ -2174,64 +2174,64 @@
         <v>0</v>
       </c>
       <c r="CU5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV5" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC5" s="5"/>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" s="4">
         <v>45673</v>
@@ -2243,40 +2243,40 @@
         <v>11484</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W6" s="3">
         <v>12</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="4">
         <v>45674</v>
@@ -2378,19 +2378,19 @@
         <v>45813</v>
       </c>
       <c r="CN6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ6" s="9">
         <v>11484</v>
       </c>
       <c r="CR6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS6" s="3">
         <v>5742</v>
@@ -2399,64 +2399,64 @@
         <v>0</v>
       </c>
       <c r="CU6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV6" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC6" s="5"/>
     </row>
     <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2">
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H7" s="3">
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" s="4">
         <v>45673</v>
@@ -2468,40 +2468,40 @@
         <v>7603</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U7" s="3">
         <v>1</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W7" s="3">
         <v>12</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y7" s="3">
         <v>0</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA7" s="4">
         <v>45674</v>
@@ -2603,19 +2603,19 @@
         <v>45813</v>
       </c>
       <c r="CN7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ7" s="9">
         <v>7608</v>
       </c>
       <c r="CR7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS7" s="3">
         <v>3804</v>
@@ -2624,64 +2624,64 @@
         <v>0</v>
       </c>
       <c r="CU7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV7" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC7" s="5"/>
     </row>
     <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="3">
         <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="4">
         <v>45673</v>
@@ -2691,40 +2691,40 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U8" s="3">
         <v>1</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W8" s="3">
         <v>12</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA8" s="4">
         <v>45674</v>
@@ -2836,17 +2836,17 @@
         <v>45813</v>
       </c>
       <c r="CN8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ8" s="5"/>
       <c r="CR8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS8" s="3">
         <v>0</v>
@@ -2855,64 +2855,64 @@
         <v>9967</v>
       </c>
       <c r="CU8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV8" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC8" s="5"/>
     </row>
     <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3">
         <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" s="4">
         <v>45673</v>
@@ -2922,40 +2922,40 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U9" s="3">
         <v>1</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W9" s="3">
         <v>12</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA9" s="4">
         <v>45674</v>
@@ -3067,17 +3067,17 @@
         <v>45813</v>
       </c>
       <c r="CN9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ9" s="5"/>
       <c r="CR9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS9" s="3">
         <v>0</v>
@@ -3086,64 +3086,64 @@
         <v>5742</v>
       </c>
       <c r="CU9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV9" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC9" s="5"/>
     </row>
     <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2">
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="3">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" s="4">
         <v>45673</v>
@@ -3153,40 +3153,40 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U10" s="3">
         <v>1</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W10" s="3">
         <v>12</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="4">
         <v>45674</v>
@@ -3298,17 +3298,17 @@
         <v>45813</v>
       </c>
       <c r="CN10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ10" s="5"/>
       <c r="CR10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS10" s="3">
         <v>0</v>
@@ -3317,64 +3317,64 @@
         <v>3801</v>
       </c>
       <c r="CU10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV10" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC10" s="5"/>
     </row>
     <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2">
         <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="3">
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="4">
         <v>45673</v>
@@ -3384,40 +3384,40 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U11" s="3">
         <v>1</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W11" s="3">
         <v>12</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA11" s="4">
         <v>45674</v>
@@ -3529,81 +3529,81 @@
         <v>45813</v>
       </c>
       <c r="CN11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ11" s="5"/>
       <c r="CR11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS11" s="3">
         <v>0</v>
       </c>
       <c r="CT11" s="5"/>
       <c r="CU11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV11" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC11" s="5"/>
     </row>
     <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="3">
         <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="4">
         <v>45673</v>
@@ -3613,40 +3613,40 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U12" s="3">
         <v>1</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W12" s="3">
         <v>12</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA12" s="4">
         <v>45674</v>
@@ -3758,81 +3758,81 @@
         <v>45813</v>
       </c>
       <c r="CN12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ12" s="5"/>
       <c r="CR12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS12" s="3">
         <v>0</v>
       </c>
       <c r="CT12" s="5"/>
       <c r="CU12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV12" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC12" s="5"/>
     </row>
     <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2">
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" s="4">
         <v>45673</v>
@@ -3842,40 +3842,40 @@
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U13" s="3">
         <v>1</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W13" s="3">
         <v>12</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y13" s="3">
         <v>0</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA13" s="4">
         <v>45674</v>
@@ -3987,81 +3987,81 @@
         <v>45813</v>
       </c>
       <c r="CN13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ13" s="5"/>
       <c r="CR13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS13" s="3">
         <v>0</v>
       </c>
       <c r="CT13" s="5"/>
       <c r="CU13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV13" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC13" s="5"/>
     </row>
     <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="3">
         <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" s="4">
         <v>45673</v>
@@ -4071,40 +4071,40 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U14" s="3">
         <v>1</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W14" s="3">
         <v>12</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="4">
         <v>45674</v>
@@ -4216,17 +4216,17 @@
         <v>45813</v>
       </c>
       <c r="CN14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ14" s="5"/>
       <c r="CR14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS14" s="3">
         <v>0</v>
@@ -4235,64 +4235,64 @@
         <v>0</v>
       </c>
       <c r="CU14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV14" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC14" s="5"/>
     </row>
     <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2">
         <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="3">
         <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15" s="4">
         <v>45673</v>
@@ -4302,40 +4302,40 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U15" s="3">
         <v>1</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W15" s="3">
         <v>12</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA15" s="4">
         <v>45674</v>
@@ -4447,17 +4447,17 @@
         <v>45813</v>
       </c>
       <c r="CN15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ15" s="5"/>
       <c r="CR15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS15" s="3">
         <v>0</v>
@@ -4466,64 +4466,64 @@
         <v>0</v>
       </c>
       <c r="CU15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV15" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC15" s="5"/>
     </row>
     <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2">
         <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H16" s="3">
         <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L16" s="4">
         <v>45673</v>
@@ -4533,40 +4533,40 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U16" s="3">
         <v>1</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W16" s="3">
         <v>12</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y16" s="3">
         <v>0</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA16" s="4">
         <v>45674</v>
@@ -4678,17 +4678,17 @@
         <v>45813</v>
       </c>
       <c r="CN16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ16" s="5"/>
       <c r="CR16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS16" s="3">
         <v>0</v>
@@ -4697,64 +4697,64 @@
         <v>0</v>
       </c>
       <c r="CU16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV16" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC16" s="5"/>
     </row>
     <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2">
         <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H17" s="3">
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17" s="4">
         <v>45673</v>
@@ -4764,40 +4764,40 @@
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U17" s="3">
         <v>1</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W17" s="3">
         <v>12</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA17" s="4">
         <v>45674</v>
@@ -4909,17 +4909,17 @@
         <v>45813</v>
       </c>
       <c r="CN17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ17" s="5"/>
       <c r="CR17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS17" s="3">
         <v>0</v>
@@ -4928,64 +4928,64 @@
         <v>0</v>
       </c>
       <c r="CU17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV17" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC17" s="5"/>
     </row>
     <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="3">
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4">
         <v>45673</v>
@@ -4995,40 +4995,40 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U18" s="3">
         <v>1</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W18" s="3">
         <v>12</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA18" s="4">
         <v>45674</v>
@@ -5140,17 +5140,17 @@
         <v>45813</v>
       </c>
       <c r="CN18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ18" s="5"/>
       <c r="CR18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS18" s="3">
         <v>0</v>
@@ -5159,64 +5159,64 @@
         <v>0</v>
       </c>
       <c r="CU18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV18" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CX18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC18" s="5"/>
     </row>
     <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="4">
         <v>45673</v>
@@ -5226,40 +5226,40 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U19" s="3">
         <v>1</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W19" s="3">
         <v>12</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y19" s="3">
         <v>0</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA19" s="4">
         <v>45674</v>
@@ -5371,17 +5371,17 @@
         <v>45813</v>
       </c>
       <c r="CN19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ19" s="5"/>
       <c r="CR19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS19" s="3">
         <v>0</v>
@@ -5390,64 +5390,64 @@
         <v>0</v>
       </c>
       <c r="CU19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV19" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CX19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC19" s="5"/>
     </row>
     <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="3">
         <v>12</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" s="4">
         <v>45673</v>
@@ -5457,40 +5457,40 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Q20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="S20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="U20" s="3">
         <v>1</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W20" s="3">
         <v>12</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA20" s="4">
         <v>45674</v>
@@ -5602,17 +5602,17 @@
         <v>45813</v>
       </c>
       <c r="CN20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CO20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CP20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CQ20" s="5"/>
       <c r="CR20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CS20" s="3">
         <v>0</v>
@@ -5621,28 +5621,28 @@
         <v>0</v>
       </c>
       <c r="CU20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CV20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CV20" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="CW20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CX20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CY20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CZ20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DA20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DB20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DC20" s="5"/>
     </row>
